--- a/Users Loads17.xlsx
+++ b/Users Loads17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.03035571485649</v>
+        <v>1.179489608877793</v>
       </c>
       <c r="C2" t="n">
-        <v>1.911948405505134</v>
+        <v>5.121759991662863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2349075770763921</v>
+        <v>0.2659999116465858</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.170477717533296</v>
+        <v>2.256852830972132</v>
       </c>
       <c r="C3" t="n">
-        <v>4.864379961954725</v>
+        <v>2.512543630289937</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5509191404862165</v>
+        <v>0.2822758317278459</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.526401458261895</v>
+        <v>5.890595381288748</v>
       </c>
       <c r="C4" t="n">
-        <v>2.744380080550955</v>
+        <v>4.54284386572298</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3679582686109506</v>
+        <v>0.6709362115330153</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.625239334710157</v>
+        <v>7.201341856862103</v>
       </c>
       <c r="C5" t="n">
-        <v>2.547640751818352</v>
+        <v>5.481674990207025</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4336006317218712</v>
+        <v>0.5991265536376147</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.605706636824845</v>
+        <v>22.24114521373448</v>
       </c>
       <c r="C6" t="n">
-        <v>2.126929448193573</v>
+        <v>5.638927957281405</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3713831571742519</v>
+        <v>0.4474741475953582</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.372692613800555</v>
+        <v>22.3448467568353</v>
       </c>
       <c r="C7" t="n">
-        <v>6.74210319273473</v>
+        <v>6.69261740908071</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6787799968597598</v>
+        <v>0.5371195989525227</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.018680970788965</v>
+        <v>25.36507346577119</v>
       </c>
       <c r="C8" t="n">
-        <v>5.047875566664326</v>
+        <v>2.865373845761207</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6051076547860024</v>
+        <v>0.4781371669887253</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.189199777676137</v>
+        <v>36.82177384762808</v>
       </c>
       <c r="C9" t="n">
-        <v>7.971021269337664</v>
+        <v>4.692078733085003</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3708708917402352</v>
+        <v>0.4321510150696184</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.17131409909946</v>
+        <v>37.18347464075044</v>
       </c>
       <c r="C10" t="n">
-        <v>5.536029816999976</v>
+        <v>3.82334544200809</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7178534648478891</v>
+        <v>0.5591234724162917</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.30909936352205</v>
+        <v>40.58471787831015</v>
       </c>
       <c r="C11" t="n">
-        <v>7.358595850808111</v>
+        <v>9.738207570106812</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2622792977203768</v>
+        <v>0.4954519946357452</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.43576321529582</v>
+        <v>41.46396354355726</v>
       </c>
       <c r="C12" t="n">
-        <v>3.876066113421632</v>
+        <v>2.946521053563037</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3824981688124544</v>
+        <v>0.5109712905263452</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.97572587627621</v>
+        <v>45.12639147527808</v>
       </c>
       <c r="C13" t="n">
-        <v>5.634482553468329</v>
+        <v>1.622071569012757</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5453117592510379</v>
+        <v>0.3317644782333493</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.3872579182615</v>
+        <v>45.20957483841438</v>
       </c>
       <c r="C14" t="n">
-        <v>3.593942480095791</v>
+        <v>2.50819376593961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6288776360200008</v>
+        <v>0.5676103201055435</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22.41449069904442</v>
+        <v>47.08168723030688</v>
       </c>
       <c r="C15" t="n">
-        <v>2.461522083497224</v>
+        <v>1.660466874886036</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4167250819833576</v>
+        <v>0.3523043880356628</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.52729549381924</v>
+        <v>48.53994855760722</v>
       </c>
       <c r="C16" t="n">
-        <v>5.773470012303456</v>
+        <v>5.517640875896456</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3201593637872505</v>
+        <v>0.5348537277419639</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0649558892148</v>
+        <v>49.01590151754824</v>
       </c>
       <c r="C17" t="n">
-        <v>6.1787134034441</v>
+        <v>3.295977289264159</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5813485389585149</v>
+        <v>0.493414690519704</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26.68761846171483</v>
+        <v>50.17603911195334</v>
       </c>
       <c r="C18" t="n">
-        <v>6.018437725577317</v>
+        <v>3.686689180786403</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7740403718194748</v>
+        <v>0.214035410505218</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30.05156719169632</v>
+        <v>53.74687108615088</v>
       </c>
       <c r="C19" t="n">
-        <v>1.428840730902967</v>
+        <v>3.821728631043711</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2587545600276385</v>
+        <v>0.6569225276145009</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30.39621409375144</v>
+        <v>54.5193984361466</v>
       </c>
       <c r="C20" t="n">
-        <v>5.670272154721113</v>
+        <v>2.677302669366846</v>
       </c>
       <c r="D20" t="n">
-        <v>0.800532043666339</v>
+        <v>0.2952695612447521</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>33.25096435374304</v>
+        <v>58.18164324253958</v>
       </c>
       <c r="C21" t="n">
-        <v>5.275946532457729</v>
+        <v>4.656248355095755</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6604548734657482</v>
+        <v>0.311655496227373</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>34.18780469587851</v>
+        <v>60.79630555341398</v>
       </c>
       <c r="C22" t="n">
-        <v>6.687275954963271</v>
+        <v>3.817207052540798</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5739198512182246</v>
+        <v>0.6322041413680677</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>34.28353564996277</v>
+        <v>69.71745092868154</v>
       </c>
       <c r="C23" t="n">
-        <v>8.44296182296514</v>
+        <v>6.820560017589059</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9156534430870571</v>
+        <v>0.7704641975613831</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>36.31307705415179</v>
+        <v>70.74070756638815</v>
       </c>
       <c r="C24" t="n">
-        <v>6.831949038623687</v>
+        <v>7.384142606715507</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6239072783905839</v>
+        <v>0.5529769371399345</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>37.3576263777036</v>
+        <v>73.39140359159852</v>
       </c>
       <c r="C25" t="n">
-        <v>5.79227204986568</v>
+        <v>5.292404548805142</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7519110887281494</v>
+        <v>0.5560396686189114</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44.09096535639753</v>
+        <v>73.58872520003976</v>
       </c>
       <c r="C26" t="n">
-        <v>6.222994203380032</v>
+        <v>4.552860150686686</v>
       </c>
       <c r="D26" t="n">
-        <v>0.780000193797724</v>
+        <v>0.5410710319753527</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>50.84449650804896</v>
+        <v>77.52095413455471</v>
       </c>
       <c r="C27" t="n">
-        <v>4.1185914812732</v>
+        <v>2.25718793433356</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4307540164515508</v>
+        <v>0.3963459084395111</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>50.99214756185469</v>
+        <v>80.27872689282572</v>
       </c>
       <c r="C28" t="n">
-        <v>2.880585641281699</v>
+        <v>5.856256610519349</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1866331043714421</v>
+        <v>0.6647591598107228</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>51.04602195605446</v>
+        <v>81.68938598601198</v>
       </c>
       <c r="C29" t="n">
-        <v>6.053590723422912</v>
+        <v>7.466299566919523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7701357942364075</v>
+        <v>0.5933720568233973</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>53.25231471344838</v>
+        <v>83.47866707827706</v>
       </c>
       <c r="C30" t="n">
-        <v>4.452215274968127</v>
+        <v>6.090542712802796</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4714691016427015</v>
+        <v>0.3560199872119551</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>53.27487561091095</v>
+        <v>84.58597524997717</v>
       </c>
       <c r="C31" t="n">
-        <v>4.936418487950672</v>
+        <v>4.297478148273033</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2687702082571765</v>
+        <v>0.4492454992715766</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>53.41946706524985</v>
+        <v>84.97682422020689</v>
       </c>
       <c r="C32" t="n">
-        <v>7.479546957351811</v>
+        <v>5.839490860769521</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6300307793664226</v>
+        <v>0.7898600287208435</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>57.88567261034943</v>
+        <v>89.80862695547808</v>
       </c>
       <c r="C33" t="n">
-        <v>9.660544820302437</v>
+        <v>3.932820984197781</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6851049075953145</v>
+        <v>0.6399189739808473</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.06631682759539</v>
+        <v>92.39631850671205</v>
       </c>
       <c r="C34" t="n">
-        <v>2.277681139453844</v>
+        <v>5.368585616669927</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3518575948902627</v>
+        <v>0.2951896464443921</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68.99770321151199</v>
+        <v>95.07503045695304</v>
       </c>
       <c r="C35" t="n">
-        <v>7.819544264574775</v>
+        <v>6.610110400273894</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6331474641658646</v>
+        <v>0.5849567390648386</v>
       </c>
     </row>
     <row r="36">
@@ -931,153 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>70.01694537850699</v>
+        <v>99.94446773238099</v>
       </c>
       <c r="C36" t="n">
-        <v>7.212909228384247</v>
+        <v>3.043545565757124</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6995923535141991</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>72.08844904682812</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3.300128212118318</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.1288536049331743</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>73.37624689256913</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6.01400281460922</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.514396650177204</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>73.74924510097581</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.97568275917415</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.7418762777576117</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>76.37866759813942</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3.861218878287325</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.3183053002929663</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>78.46780674345706</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4.423814436708962</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.4804913952119824</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>83.4051351557324</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.516768810497526</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.3304954026493522</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>86.98109713838539</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.131887703507841</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.3483960168319753</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>88.45914912846987</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.552382504698258</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.2925880070642928</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>95.81544553491578</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.431959794329172</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.7692461169807256</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>97.63845519289325</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5.359818682126068</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.6894504867192172</v>
+        <v>0.4845145811264198</v>
       </c>
     </row>
   </sheetData>
